--- a/data/trans_orig/P6709-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4661</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1796</v>
+        <v>1750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9570</v>
+        <v>10140</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01539330332848943</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005929737360981613</v>
+        <v>0.005778746586226821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03160433497806838</v>
+        <v>0.03348588379882682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -763,19 +763,19 @@
         <v>6772</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2850</v>
+        <v>2886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13564</v>
+        <v>13478</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03483383331560411</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0146584234371217</v>
+        <v>0.0148452768682807</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06976662004420388</v>
+        <v>0.0693273952336098</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -784,19 +784,19 @@
         <v>11433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6458</v>
+        <v>5827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19446</v>
+        <v>18691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02299463826578678</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01298818660090869</v>
+        <v>0.01171831232817115</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03911030540193416</v>
+        <v>0.03759028509264196</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>8032</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3590</v>
+        <v>3036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16506</v>
+        <v>17323</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02652451353434186</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01185497462747822</v>
+        <v>0.01002670191697696</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05451166283457162</v>
+        <v>0.05720975925511251</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -834,19 +834,19 @@
         <v>11742</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5904</v>
+        <v>5915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21451</v>
+        <v>22063</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06039445515326921</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0303684604439301</v>
+        <v>0.03042562116222229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1103370352890548</v>
+        <v>0.1134827484564644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -855,19 +855,19 @@
         <v>19773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11463</v>
+        <v>11802</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31255</v>
+        <v>30414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03976781352270731</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02305511762884921</v>
+        <v>0.02373553960111533</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06285941647977304</v>
+        <v>0.06116876308786865</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>53172</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40648</v>
+        <v>39736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67791</v>
+        <v>68432</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.17559999448189</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1342397373899246</v>
+        <v>0.1312264244133055</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2238789566212997</v>
+        <v>0.2259960979453866</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -905,19 +905,19 @@
         <v>35774</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25848</v>
+        <v>25414</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47663</v>
+        <v>47904</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1840107438410685</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1329523169391774</v>
+        <v>0.1307189050768378</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2451636677452749</v>
+        <v>0.2464008316592408</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -926,19 +926,19 @@
         <v>88946</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72205</v>
+        <v>73162</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>109359</v>
+        <v>109071</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1788886354291867</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1452192575594956</v>
+        <v>0.1471438094798821</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2199423540425311</v>
+        <v>0.2193638305087067</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>75130</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59308</v>
+        <v>59642</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91511</v>
+        <v>90618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2481161161271569</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1958640755220567</v>
+        <v>0.1969669570606899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3022137063169186</v>
+        <v>0.2992651122288288</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -976,19 +976,19 @@
         <v>50237</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38375</v>
+        <v>38788</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64521</v>
+        <v>63612</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2584038885184319</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1973859061446264</v>
+        <v>0.199511447917612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3318727303253446</v>
+        <v>0.3271967678588807</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -997,19 +997,19 @@
         <v>125368</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107248</v>
+        <v>107371</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>148342</v>
+        <v>148113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2521386815488092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2156972183519851</v>
+        <v>0.215944119635321</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2983441541137376</v>
+        <v>0.2978839115711392</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>161808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>141957</v>
+        <v>141459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177004</v>
+        <v>178854</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5343660725281217</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4688082617792382</v>
+        <v>0.4671655779758488</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.584550303508555</v>
+        <v>0.5906608091009958</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -1047,19 +1047,19 @@
         <v>89889</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75979</v>
+        <v>75995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>106121</v>
+        <v>104318</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4623570791716263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3908096212737491</v>
+        <v>0.3908902995494577</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5458521332162997</v>
+        <v>0.5365774232225403</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>229</v>
@@ -1068,19 +1068,19 @@
         <v>251696</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>228457</v>
+        <v>227938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>276407</v>
+        <v>274780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5062102312335099</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4594712863545823</v>
+        <v>0.4584270898395185</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.555907823436301</v>
+        <v>0.5526357661170637</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>16610</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9187</v>
+        <v>9167</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29348</v>
+        <v>30132</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06475377196335201</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03581461693716356</v>
+        <v>0.03573567638035686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1144118877788625</v>
+        <v>0.1174681935836765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1193,19 +1193,19 @@
         <v>22571</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14104</v>
+        <v>14400</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33929</v>
+        <v>32748</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1376299788935568</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08599967219886255</v>
+        <v>0.0878068905963017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2068932834886195</v>
+        <v>0.1996892475078178</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1214,19 +1214,19 @@
         <v>39181</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27706</v>
+        <v>27697</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52576</v>
+        <v>56523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09317514019726844</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06588681559074659</v>
+        <v>0.06586730483751638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1250307316696457</v>
+        <v>0.1344166450684433</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>14768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7911</v>
+        <v>8357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25346</v>
+        <v>24988</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05757400837307973</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03083918625243228</v>
+        <v>0.03257800673081067</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09880996377354144</v>
+        <v>0.09741695843326037</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1264,19 +1264,19 @@
         <v>14369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8594</v>
+        <v>7797</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24181</v>
+        <v>23581</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0876179586825148</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05240583458237487</v>
+        <v>0.04754494762585622</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1474520994522884</v>
+        <v>0.1437892503801412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -1285,19 +1285,19 @@
         <v>29137</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19847</v>
+        <v>19779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>41428</v>
+        <v>42591</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06929100368492043</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04719708309845307</v>
+        <v>0.04703631064593683</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09852066453943621</v>
+        <v>0.1012844518716541</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>58250</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45583</v>
+        <v>45977</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74641</v>
+        <v>74062</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2270866734084852</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1777028630130996</v>
+        <v>0.1792421244934416</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.290986840263973</v>
+        <v>0.2887309479798338</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -1335,19 +1335,19 @@
         <v>29851</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20626</v>
+        <v>20627</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42770</v>
+        <v>41775</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1820238691152956</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1257712358634959</v>
+        <v>0.1257809385346913</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2607976497040582</v>
+        <v>0.25473062718045</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -1356,19 +1356,19 @@
         <v>88101</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71085</v>
+        <v>71670</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>106245</v>
+        <v>105484</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.209512397682304</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1690470749541207</v>
+        <v>0.1704390144448363</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2526617182478499</v>
+        <v>0.2508514853357537</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>78715</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63305</v>
+        <v>63046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95097</v>
+        <v>95463</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3068681643758596</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2467937971379873</v>
+        <v>0.2457823368298556</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3707357449410298</v>
+        <v>0.3721598418616312</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1406,19 +1406,19 @@
         <v>52573</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41127</v>
+        <v>40841</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66010</v>
+        <v>65842</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3205776996284743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2507841866152302</v>
+        <v>0.2490395642264919</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4025140428188678</v>
+        <v>0.4014855877558257</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>120</v>
@@ -1427,19 +1427,19 @@
         <v>131288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111990</v>
+        <v>112331</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>153226</v>
+        <v>153530</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.312214816817631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2663240878330563</v>
+        <v>0.2671333472346271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.364387007368027</v>
+        <v>0.3651105303721183</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>88167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71657</v>
+        <v>72497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103979</v>
+        <v>103844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3437173818792235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2793516843091649</v>
+        <v>0.2826285259214317</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4053611731118333</v>
+        <v>0.4048342879408404</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -1477,19 +1477,19 @@
         <v>44631</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33215</v>
+        <v>34095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57518</v>
+        <v>56775</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2721504936801585</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2025350650208423</v>
+        <v>0.2079006693385184</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.350727598014892</v>
+        <v>0.346201423423628</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -1498,19 +1498,19 @@
         <v>132798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>111029</v>
+        <v>111156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>153389</v>
+        <v>152529</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3158066416178761</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2640383298614416</v>
+        <v>0.2643389111400175</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3647731736907884</v>
+        <v>0.3627297502977312</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>9063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4370</v>
+        <v>4131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16858</v>
+        <v>15560</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03241571910262912</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01563152302146203</v>
+        <v>0.0147749864730063</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06029914954920354</v>
+        <v>0.05565550354222263</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1623,19 +1623,19 @@
         <v>3978</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1054</v>
+        <v>1011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10262</v>
+        <v>10013</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0363128050489594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009620706424515842</v>
+        <v>0.0092283655883905</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09368559847804621</v>
+        <v>0.09140887508551132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1644,19 +1644,19 @@
         <v>13040</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7160</v>
+        <v>6783</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21676</v>
+        <v>21220</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03351279526179742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01840055198843462</v>
+        <v>0.01743059087913204</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05570561194736069</v>
+        <v>0.05453512105000632</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>19879</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12888</v>
+        <v>12517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29495</v>
+        <v>29018</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07110301128705726</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04609905774061134</v>
+        <v>0.04477309115580635</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.105498030051622</v>
+        <v>0.1037930876162389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6128</v>
+        <v>6118</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01835996706645143</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0559429687650249</v>
+        <v>0.05584861391070925</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -1715,19 +1715,19 @@
         <v>21890</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14086</v>
+        <v>14244</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32419</v>
+        <v>32155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05625521547930171</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03620066572198975</v>
+        <v>0.03660514836837615</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08331509661749556</v>
+        <v>0.08263700902690306</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>49910</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37859</v>
+        <v>38914</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65159</v>
+        <v>64941</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1785209788544581</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.135416613313609</v>
+        <v>0.1391906263592494</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2330640909905978</v>
+        <v>0.2322848354051945</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1765,19 +1765,19 @@
         <v>13217</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7145</v>
+        <v>7046</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21985</v>
+        <v>21505</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1206603479388434</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06522381158163794</v>
+        <v>0.0643255123502295</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2007021799493073</v>
+        <v>0.1963223108193535</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -1786,19 +1786,19 @@
         <v>63127</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>49126</v>
+        <v>49155</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79349</v>
+        <v>79082</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1622325213746504</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1262491813081922</v>
+        <v>0.1263249384908554</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2039211495896641</v>
+        <v>0.2032352200132262</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>65522</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51404</v>
+        <v>52920</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80474</v>
+        <v>80534</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2343615993047723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1838651235122494</v>
+        <v>0.1892856329306115</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2878438737239214</v>
+        <v>0.2880578339025726</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1836,19 +1836,19 @@
         <v>12285</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6866</v>
+        <v>7136</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19996</v>
+        <v>20830</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.11215156900488</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0626833029389202</v>
+        <v>0.06514396426357465</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1825477554299377</v>
+        <v>0.1901615892904303</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -1857,19 +1857,19 @@
         <v>77807</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62765</v>
+        <v>62290</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94106</v>
+        <v>95290</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1999580186551081</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1613010403609953</v>
+        <v>0.1600806607503853</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2418465979891759</v>
+        <v>0.2448893519384044</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>135202</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>118756</v>
+        <v>119021</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151473</v>
+        <v>152294</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4835986914510831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4247733161769331</v>
+        <v>0.4257228441503584</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5417987490252753</v>
+        <v>0.5447332693080066</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -1907,19 +1907,19 @@
         <v>78050</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>68018</v>
+        <v>66965</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87612</v>
+        <v>86704</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7125153109408657</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6209369402389339</v>
+        <v>0.6113238927690142</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7998139285324926</v>
+        <v>0.791524340210809</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>205</v>
@@ -1928,19 +1928,19 @@
         <v>213252</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>193632</v>
+        <v>193781</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>234024</v>
+        <v>234097</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5480414492291423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4976210267194412</v>
+        <v>0.4980019620930728</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6014244880900761</v>
+        <v>0.6016111401951656</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>41463</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30199</v>
+        <v>28810</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58196</v>
+        <v>55364</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09847271329538632</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07172018044599518</v>
+        <v>0.06842182568047361</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1382126568199181</v>
+        <v>0.1314872158118024</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2053,19 +2053,19 @@
         <v>33241</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24111</v>
+        <v>23936</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45987</v>
+        <v>45982</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1119863148697746</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08122942265577926</v>
+        <v>0.0806382773425805</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1549264368339964</v>
+        <v>0.1549109346025886</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -2074,19 +2074,19 @@
         <v>74704</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>58623</v>
+        <v>58845</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92597</v>
+        <v>93469</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1040602559530137</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08165930737738293</v>
+        <v>0.0819697157945571</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1289850403503682</v>
+        <v>0.1301992317388697</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>37681</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26765</v>
+        <v>26660</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>49954</v>
+        <v>51922</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08949039487102141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06356484263518458</v>
+        <v>0.06331701797003915</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.118638873899547</v>
+        <v>0.1233119948289679</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -2124,19 +2124,19 @@
         <v>22188</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13961</v>
+        <v>13893</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>34523</v>
+        <v>34290</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07474814826143412</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04703258240746629</v>
+        <v>0.04680559145919082</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1163063452781638</v>
+        <v>0.1155217219280952</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>54</v>
@@ -2145,19 +2145,19 @@
         <v>59868</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>45443</v>
+        <v>45363</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>75546</v>
+        <v>78025</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08339483763952442</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06330101684075672</v>
+        <v>0.06318891727644013</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1052324962990792</v>
+        <v>0.1086859945265353</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>98541</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>81483</v>
+        <v>81454</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>118087</v>
+        <v>115801</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2340313228964262</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1935176202264914</v>
+        <v>0.1934496828407758</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2804508580555019</v>
+        <v>0.2750220755655127</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>71</v>
@@ -2195,19 +2195,19 @@
         <v>77149</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>62493</v>
+        <v>62195</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>93906</v>
+        <v>93093</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2599081668453187</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2105323078381107</v>
+        <v>0.2095291097896207</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3163618591337063</v>
+        <v>0.3136245465975718</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>164</v>
@@ -2216,19 +2216,19 @@
         <v>175690</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>151767</v>
+        <v>152177</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>201237</v>
+        <v>200233</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2447307629097558</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2114060827998142</v>
+        <v>0.2119773988162214</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2803165664685082</v>
+        <v>0.278918342784469</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>102009</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>83955</v>
+        <v>85316</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>122140</v>
+        <v>121186</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2422661577647252</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1993885737917378</v>
+        <v>0.2026219089310051</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.290076266587125</v>
+        <v>0.2878104947749623</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -2266,19 +2266,19 @@
         <v>62375</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48857</v>
+        <v>48742</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77747</v>
+        <v>77399</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.210135375035398</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1645946078009222</v>
+        <v>0.164206524574046</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2619248530689463</v>
+        <v>0.2607523144378326</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>159</v>
@@ -2287,19 +2287,19 @@
         <v>164384</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>143395</v>
+        <v>143110</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>190029</v>
+        <v>189439</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2289808675232746</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1997448495046998</v>
+        <v>0.1993475465022508</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2647041124427654</v>
+        <v>0.2638826936253521</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>141367</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>121860</v>
+        <v>122098</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>161206</v>
+        <v>160607</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3357394111724408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2894127453103046</v>
+        <v>0.2899770402418225</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3828564463848624</v>
+        <v>0.3814331386100684</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -2337,19 +2337,19 @@
         <v>101879</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>85907</v>
+        <v>85169</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>118805</v>
+        <v>118702</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3432219949880745</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2894129252973308</v>
+        <v>0.2869284433953477</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4002454554273814</v>
+        <v>0.3998979113176926</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>229</v>
@@ -2358,19 +2358,19 @@
         <v>243246</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>218775</v>
+        <v>218587</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>267744</v>
+        <v>270464</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3388332759744315</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.304746385750757</v>
+        <v>0.3044847044298377</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3729590723391539</v>
+        <v>0.3767476539135088</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>25805</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18062</v>
+        <v>17345</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>36262</v>
+        <v>36829</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1709109042262914</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1196265040591352</v>
+        <v>0.1148760839068827</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2401668631834185</v>
+        <v>0.2439222670888426</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -2483,19 +2483,19 @@
         <v>24485</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16727</v>
+        <v>16031</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37111</v>
+        <v>35368</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1417517191977831</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09683725616562595</v>
+        <v>0.09281026514171116</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2148460403356062</v>
+        <v>0.2047577544501949</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>46</v>
@@ -2504,19 +2504,19 @@
         <v>50291</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>38111</v>
+        <v>38153</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>64873</v>
+        <v>63847</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1553519992920687</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1177276212359723</v>
+        <v>0.1178573833983519</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2003970709292963</v>
+        <v>0.1972277721345398</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>18807</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11961</v>
+        <v>12143</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27168</v>
+        <v>28816</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1245598096186646</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.079216877466014</v>
+        <v>0.08042429280253489</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1799373117525642</v>
+        <v>0.1908466469675775</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -2554,19 +2554,19 @@
         <v>17938</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10485</v>
+        <v>10792</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28581</v>
+        <v>27811</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1038471410923024</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06069934297489452</v>
+        <v>0.06247594140419275</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1654624588839259</v>
+        <v>0.1610067470556339</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>34</v>
@@ -2575,19 +2575,19 @@
         <v>36745</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26480</v>
+        <v>25489</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49847</v>
+        <v>49413</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1135078395371736</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08179936961540217</v>
+        <v>0.07873691489773048</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1539803243522462</v>
+        <v>0.1526397283532378</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>35335</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25258</v>
+        <v>25155</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45771</v>
+        <v>46111</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2340254510498374</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1672868356892519</v>
+        <v>0.1666028951379267</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3031461580743955</v>
+        <v>0.3053980256226706</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>35</v>
@@ -2625,19 +2625,19 @@
         <v>40244</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>29365</v>
+        <v>29022</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>53638</v>
+        <v>51702</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2329848064590467</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1700037292839301</v>
+        <v>0.1680201618224648</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3105275294982075</v>
+        <v>0.2993194776466842</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>69</v>
@@ -2646,19 +2646,19 @@
         <v>75579</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>59937</v>
+        <v>59438</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>91869</v>
+        <v>91597</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2334701786633631</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1851508478225651</v>
+        <v>0.183610010524218</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2837905869463914</v>
+        <v>0.2829510629169871</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>34907</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24646</v>
+        <v>24741</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45715</v>
+        <v>45751</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2311872785966944</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1632284372134149</v>
+        <v>0.1638638364100619</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3027695123852168</v>
+        <v>0.3030076299366698</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>30</v>
@@ -2696,19 +2696,19 @@
         <v>31448</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22218</v>
+        <v>21415</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>43174</v>
+        <v>42376</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1820645290176323</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1286251065790918</v>
+        <v>0.1239755754193416</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2499503850937269</v>
+        <v>0.245326724944398</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>63</v>
@@ -2717,19 +2717,19 @@
         <v>66355</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53436</v>
+        <v>52300</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>80824</v>
+        <v>83050</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2049761142565038</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1650680226941239</v>
+        <v>0.1615583271099147</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2496713520473274</v>
+        <v>0.2565483722633776</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>36134</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26370</v>
+        <v>26605</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>47744</v>
+        <v>49418</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2393165565085122</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1746476649039103</v>
+        <v>0.1762027877471418</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3162137566426885</v>
+        <v>0.3273005159143823</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>54</v>
@@ -2767,19 +2767,19 @@
         <v>58617</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>46757</v>
+        <v>46587</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>72588</v>
+        <v>71767</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3393518042332356</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2706888363497392</v>
+        <v>0.2697048859916989</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4202363286280304</v>
+        <v>0.4154789016582454</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>87</v>
@@ -2788,19 +2788,19 @@
         <v>94751</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>79024</v>
+        <v>77489</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>113707</v>
+        <v>110671</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2926938682508908</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.244113365389649</v>
+        <v>0.2393698786148481</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3512515397182864</v>
+        <v>0.3418731512095784</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>97602</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>79159</v>
+        <v>78069</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>118892</v>
+        <v>121450</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06917551775173501</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0561036718765112</v>
+        <v>0.05533122847651262</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0842642257905767</v>
+        <v>0.08607765889398324</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>85</v>
@@ -2913,19 +2913,19 @@
         <v>91047</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>74807</v>
+        <v>75348</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>111646</v>
+        <v>112462</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09711506613025163</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0797932107809379</v>
+        <v>0.08037035407623977</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1190879168433986</v>
+        <v>0.1199578275032983</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>172</v>
@@ -2934,19 +2934,19 @@
         <v>188649</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>166354</v>
+        <v>163809</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>220157</v>
+        <v>218186</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08032912259344151</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07083569750895219</v>
+        <v>0.0697518082493831</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09374564279069238</v>
+        <v>0.0929063831753089</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>99167</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>81063</v>
+        <v>79352</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>121341</v>
+        <v>119809</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0702842266069142</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05745301085602771</v>
+        <v>0.05624087130972977</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08600002957834998</v>
+        <v>0.0849143102156393</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>61</v>
@@ -2984,19 +2984,19 @@
         <v>68247</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>54010</v>
+        <v>52017</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>88246</v>
+        <v>85538</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07279570057253092</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05760980716384189</v>
+        <v>0.05548357300067637</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09412778776578273</v>
+        <v>0.0912398443259604</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>153</v>
@@ -3005,19 +3005,19 @@
         <v>167413</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>141046</v>
+        <v>141337</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>194613</v>
+        <v>197075</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07128681934045536</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06005920636695736</v>
+        <v>0.06018301111485837</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08286867849163605</v>
+        <v>0.08391691947186557</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>295209</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>266044</v>
+        <v>262375</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>328350</v>
+        <v>326027</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.209228841909186</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1885587373122231</v>
+        <v>0.1859577376081825</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2327179043119487</v>
+        <v>0.2310716042632271</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>177</v>
@@ -3055,19 +3055,19 @@
         <v>196235</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>170986</v>
+        <v>170877</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>222420</v>
+        <v>225505</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2093147349638375</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1823823993150804</v>
+        <v>0.1822669762962784</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2372446876588153</v>
+        <v>0.2405357418768606</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>457</v>
@@ -3076,19 +3076,19 @@
         <v>491444</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>448665</v>
+        <v>451706</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>530664</v>
+        <v>534540</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2092631308381712</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1910475539283355</v>
+        <v>0.1923422309935452</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2259635499582369</v>
+        <v>0.2276141677438585</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>356282</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>325403</v>
+        <v>325154</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>393927</v>
+        <v>392313</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2525144692161989</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2306290551374445</v>
+        <v>0.2304525111875575</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2791954424623125</v>
+        <v>0.2780511046509065</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>198</v>
@@ -3126,19 +3126,19 @@
         <v>208918</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>185359</v>
+        <v>185246</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>235624</v>
+        <v>237519</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2228435255668512</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1977139595461107</v>
+        <v>0.1975936084823051</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2513292966919356</v>
+        <v>0.2533504931916201</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>537</v>
@@ -3147,19 +3147,19 @@
         <v>565200</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>524972</v>
+        <v>521424</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>613504</v>
+        <v>608172</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2406696828845833</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2235400721634405</v>
+        <v>0.222029104685677</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2612380574133698</v>
+        <v>0.258967307113166</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>562677</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>522823</v>
+        <v>527060</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>601066</v>
+        <v>602154</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.398796944515966</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3705499123378457</v>
+        <v>0.3735534481658002</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.426004967175653</v>
+        <v>0.4267761434333499</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>344</v>
@@ -3197,19 +3197,19 @@
         <v>373065</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>341243</v>
+        <v>343822</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>404742</v>
+        <v>403127</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3979309727665287</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3639878851496584</v>
+        <v>0.3667383552326129</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4317191839324682</v>
+        <v>0.4299969843769368</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>870</v>
@@ -3218,19 +3218,19 @@
         <v>935742</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>888595</v>
+        <v>888394</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>985590</v>
+        <v>984407</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3984512443433486</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3783754193276769</v>
+        <v>0.3782895566944692</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4196770029050899</v>
+        <v>0.4191732024818551</v>
       </c>
     </row>
     <row r="39">
@@ -3563,19 +3563,19 @@
         <v>9427</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3961</v>
+        <v>4293</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16401</v>
+        <v>16790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03414986643321291</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01434742658318399</v>
+        <v>0.01555294652548605</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05941178146441948</v>
+        <v>0.06082305713304819</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -3584,19 +3584,19 @@
         <v>10668</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5101</v>
+        <v>5443</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18232</v>
+        <v>19142</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04980887725183955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02381804635881485</v>
+        <v>0.0254126407285851</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08512608970673238</v>
+        <v>0.08937611987516526</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -3605,19 +3605,19 @@
         <v>20095</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12662</v>
+        <v>12087</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31429</v>
+        <v>31478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04099110311829775</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02582966224490468</v>
+        <v>0.0246567267032277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06411114979021314</v>
+        <v>0.06421084275682949</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>18822</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10834</v>
+        <v>10960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30122</v>
+        <v>29457</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06818426240955133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03924546988171336</v>
+        <v>0.03970088929074664</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1091182644787902</v>
+        <v>0.1067094668871926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -3655,19 +3655,19 @@
         <v>19997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12446</v>
+        <v>12485</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29467</v>
+        <v>29326</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0933689545460607</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05811139757921406</v>
+        <v>0.05829536235070431</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.137584284449694</v>
+        <v>0.1369261078567387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -3676,19 +3676,19 @@
         <v>38820</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28903</v>
+        <v>27435</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>53417</v>
+        <v>53495</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07918715663719365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05895825899345251</v>
+        <v>0.05596399838864967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1089647638945165</v>
+        <v>0.1091232503342837</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>76733</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60187</v>
+        <v>62090</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>92685</v>
+        <v>94260</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2779640983271984</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2180278414998704</v>
+        <v>0.2249205062382478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3357515235139309</v>
+        <v>0.3414571698375404</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -3726,19 +3726,19 @@
         <v>46330</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35694</v>
+        <v>34996</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>59133</v>
+        <v>59200</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2163185540088263</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1666586027843507</v>
+        <v>0.1634018469162342</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2760984547728716</v>
+        <v>0.2764119009454599</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>115</v>
@@ -3747,19 +3747,19 @@
         <v>123063</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>104861</v>
+        <v>104367</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>145669</v>
+        <v>144418</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2510318888698032</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2139031510554424</v>
+        <v>0.2128948817411007</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2971467497665415</v>
+        <v>0.2945948478619439</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>63198</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50830</v>
+        <v>49920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78864</v>
+        <v>77751</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2289353388006945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1841330963643661</v>
+        <v>0.1808331473730972</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.285685570906422</v>
+        <v>0.2816511495140584</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -3797,19 +3797,19 @@
         <v>64755</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52368</v>
+        <v>51893</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79427</v>
+        <v>78236</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3023482461411744</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2445109878758073</v>
+        <v>0.2422951528065527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3708533253901715</v>
+        <v>0.3652936506226476</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>124</v>
@@ -3818,19 +3818,19 @@
         <v>127953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109261</v>
+        <v>110201</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>148989</v>
+        <v>147513</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.261008570033092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2228789531997264</v>
+        <v>0.2247961724127165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.303917722014923</v>
+        <v>0.3009066761871942</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>107872</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>90860</v>
+        <v>91559</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>123262</v>
+        <v>125100</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3907664340293429</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3291393960389818</v>
+        <v>0.3316701514607826</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.446516962320006</v>
+        <v>0.4531735187529969</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -3868,19 +3868,19 @@
         <v>72424</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59653</v>
+        <v>59033</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86230</v>
+        <v>87029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3381553680520989</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2785249030131953</v>
+        <v>0.2756293660138485</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4026155669447788</v>
+        <v>0.4063472720975317</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>167</v>
@@ -3889,19 +3889,19 @@
         <v>180296</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>159361</v>
+        <v>157917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>203619</v>
+        <v>202279</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3677812813416135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3250756474461063</v>
+        <v>0.3221311958766409</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4153575109583716</v>
+        <v>0.4126239247077848</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>18298</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10568</v>
+        <v>10600</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29252</v>
+        <v>28991</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07522609957018141</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04344687050820083</v>
+        <v>0.04357951999599564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1202607238745885</v>
+        <v>0.1191869283372394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -4014,19 +4014,19 @@
         <v>20448</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13474</v>
+        <v>13082</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30422</v>
+        <v>29967</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1080917371783893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07122625145202961</v>
+        <v>0.06915433719465461</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.160813355601739</v>
+        <v>0.1584103708352811</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -4035,19 +4035,19 @@
         <v>38746</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26962</v>
+        <v>28494</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52113</v>
+        <v>53942</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08960446793144047</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0623523099841031</v>
+        <v>0.06589606913372377</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1205178089185323</v>
+        <v>0.1247471153208348</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>44272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32642</v>
+        <v>32952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57088</v>
+        <v>57519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.182012785457541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1341975090586439</v>
+        <v>0.1354736115622715</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2347030964356379</v>
+        <v>0.2364733046211428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -4085,19 +4085,19 @@
         <v>38664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27751</v>
+        <v>28241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51013</v>
+        <v>50292</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2043828178979782</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1466953133196467</v>
+        <v>0.149282986819977</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2696596485129004</v>
+        <v>0.26584844762286</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>79</v>
@@ -4106,19 +4106,19 @@
         <v>82937</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>67640</v>
+        <v>66638</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>101790</v>
+        <v>100487</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1917994377208031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1564250446720832</v>
+        <v>0.1541070538350949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2353991396822286</v>
+        <v>0.2323875440855373</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>58744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46039</v>
+        <v>45991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74109</v>
+        <v>74045</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2415112834551331</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1892765101207154</v>
+        <v>0.1890772410603668</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3046787209795179</v>
+        <v>0.304414037098253</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -4156,19 +4156,19 @@
         <v>43963</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33398</v>
+        <v>33742</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57079</v>
+        <v>57550</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2323915656540092</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1765451225405631</v>
+        <v>0.178364875939352</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3017263301163563</v>
+        <v>0.3042130961692678</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>97</v>
@@ -4177,19 +4177,19 @@
         <v>102707</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>86103</v>
+        <v>85526</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>122772</v>
+        <v>124239</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2375215035075035</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1991232433639772</v>
+        <v>0.1977887565821195</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2839238296128865</v>
+        <v>0.2873157081579046</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>65442</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51157</v>
+        <v>50488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81440</v>
+        <v>80773</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2690454096550358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2103179127307832</v>
+        <v>0.2075670484485195</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3348161588628593</v>
+        <v>0.3320741676310611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -4227,19 +4227,19 @@
         <v>48677</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37234</v>
+        <v>37734</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61508</v>
+        <v>62357</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2573115286564827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1968235642461484</v>
+        <v>0.1994660809635293</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3251339352266527</v>
+        <v>0.3296253762790625</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -4248,19 +4248,19 @@
         <v>114119</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95906</v>
+        <v>96539</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134289</v>
+        <v>134498</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2639119609961167</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2217923429705008</v>
+        <v>0.2232572907508285</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3105562923362745</v>
+        <v>0.3110412474059606</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>56481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42388</v>
+        <v>42473</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71974</v>
+        <v>70342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2322044218621087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1742676926959065</v>
+        <v>0.1746167308386903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2959007277708925</v>
+        <v>0.2891900806185705</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -4298,19 +4298,19 @@
         <v>37423</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26337</v>
+        <v>27026</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48886</v>
+        <v>50169</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1978223506131407</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1392212870194349</v>
+        <v>0.1428613583270299</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2584174012790965</v>
+        <v>0.2651989744005501</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>87</v>
@@ -4319,19 +4319,19 @@
         <v>93904</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76865</v>
+        <v>78501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112323</v>
+        <v>112826</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2171626298441362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1777574081569167</v>
+        <v>0.1815406858828907</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2597588160904327</v>
+        <v>0.2609227432854493</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>11875</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5612</v>
+        <v>6449</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19867</v>
+        <v>20817</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05489598054626228</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02594394429953132</v>
+        <v>0.02981131377166596</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09183773731283576</v>
+        <v>0.09622807514920662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5718</v>
+        <v>4937</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01512243126336812</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08780771398976125</v>
+        <v>0.07581463472728042</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -4465,19 +4465,19 @@
         <v>12860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6736</v>
+        <v>6446</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22188</v>
+        <v>20979</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04569351917929552</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02393504918266155</v>
+        <v>0.02290350526589217</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07883819894887081</v>
+        <v>0.07454131420966469</v>
       </c>
     </row>
     <row r="17">
@@ -4494,19 +4494,19 @@
         <v>21461</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13008</v>
+        <v>13850</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31576</v>
+        <v>31732</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0992073237745016</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06013239293781664</v>
+        <v>0.06402619816059843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1459659909037579</v>
+        <v>0.1466855745496947</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -4515,19 +4515,19 @@
         <v>2891</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7843</v>
+        <v>8305</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04439343922954674</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01310394533819494</v>
+        <v>0.01314973587200607</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1204413859268558</v>
+        <v>0.127531385731052</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -4536,19 +4536,19 @@
         <v>24352</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16799</v>
+        <v>15424</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36048</v>
+        <v>34200</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0865249591378795</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05968960507111161</v>
+        <v>0.05480327645590542</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.128082035031327</v>
+        <v>0.1215173944099785</v>
       </c>
     </row>
     <row r="18">
@@ -4565,19 +4565,19 @@
         <v>51574</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40035</v>
+        <v>39850</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65611</v>
+        <v>64772</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2384113406473428</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1850665440517905</v>
+        <v>0.1842153057208828</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3032982874792906</v>
+        <v>0.2994195148759271</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -4586,19 +4586,19 @@
         <v>10177</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5665</v>
+        <v>4916</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18107</v>
+        <v>17202</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1562908782548815</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08699437243084567</v>
+        <v>0.07548733500694677</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2780624034137261</v>
+        <v>0.2641633988313891</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>58</v>
@@ -4607,19 +4607,19 @@
         <v>61752</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48648</v>
+        <v>49555</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77574</v>
+        <v>77833</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2194110151488818</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1728533778321481</v>
+        <v>0.1760752053906864</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2756292250436096</v>
+        <v>0.2765500307750824</v>
       </c>
     </row>
     <row r="19">
@@ -4636,19 +4636,19 @@
         <v>59510</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46629</v>
+        <v>47469</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73738</v>
+        <v>73143</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2750948362936652</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2155511090156899</v>
+        <v>0.2194320393997698</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3408649724561084</v>
+        <v>0.3381158528287291</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -4657,19 +4657,19 @@
         <v>14996</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8999</v>
+        <v>9186</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22197</v>
+        <v>23390</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.230292003597221</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1381953974855691</v>
+        <v>0.1410714648206527</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3408717293181845</v>
+        <v>0.3591915766096129</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -4678,19 +4678,19 @@
         <v>74506</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60781</v>
+        <v>59617</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90063</v>
+        <v>88523</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2647287426346057</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2159610619500262</v>
+        <v>0.2118249427664552</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3200057523622984</v>
+        <v>0.314531872439465</v>
       </c>
     </row>
     <row r="20">
@@ -4707,19 +4707,19 @@
         <v>71904</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58132</v>
+        <v>56773</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>86132</v>
+        <v>85765</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3323905187382281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2687243361812299</v>
+        <v>0.2624428292152812</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3981588018711952</v>
+        <v>0.3964655414159221</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -4728,19 +4728,19 @@
         <v>36069</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28032</v>
+        <v>28104</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43534</v>
+        <v>43934</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5539012476549826</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4304872139291815</v>
+        <v>0.4315885531259692</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6685334097095467</v>
+        <v>0.6746868210226959</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>102</v>
@@ -4749,19 +4749,19 @@
         <v>107973</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>91513</v>
+        <v>90768</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>124604</v>
+        <v>124926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3836417638993376</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3251565063061671</v>
+        <v>0.322508018511865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4427316651464402</v>
+        <v>0.4438781956576325</v>
       </c>
     </row>
     <row r="21">
@@ -4853,19 +4853,19 @@
         <v>69867</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54565</v>
+        <v>55304</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87109</v>
+        <v>86329</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1432572680971041</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1118815265015917</v>
+        <v>0.1133978437957275</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1786111457405512</v>
+        <v>0.1770119345196697</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -4874,19 +4874,19 @@
         <v>48207</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36688</v>
+        <v>36043</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62637</v>
+        <v>61769</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1320950448225209</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1005299405730351</v>
+        <v>0.09876286187880164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1716347833058988</v>
+        <v>0.1692580876770644</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>113</v>
@@ -4895,19 +4895,19 @@
         <v>118074</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>97868</v>
+        <v>96985</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139694</v>
+        <v>138590</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1384796966221259</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1147818184048798</v>
+        <v>0.1137461814359171</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1638361924547325</v>
+        <v>0.1625413892530232</v>
       </c>
     </row>
     <row r="23">
@@ -4924,19 +4924,19 @@
         <v>74004</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57497</v>
+        <v>58920</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>90368</v>
+        <v>90692</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1517410817758467</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1178947524815512</v>
+        <v>0.1208110594272883</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1852943064620479</v>
+        <v>0.1859575015794651</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>48</v>
@@ -4945,19 +4945,19 @@
         <v>50116</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>38090</v>
+        <v>38716</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>64827</v>
+        <v>66283</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1373261962516077</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1043731987975633</v>
+        <v>0.1060875974898389</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1776366172931252</v>
+        <v>0.1816272861982751</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>118</v>
@@ -4966,19 +4966,19 @@
         <v>124120</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>104908</v>
+        <v>105042</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>145296</v>
+        <v>146904</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.145571330087355</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1230385588956848</v>
+        <v>0.1231954051467797</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1704067678839064</v>
+        <v>0.1722928484264359</v>
       </c>
     </row>
     <row r="24">
@@ -4995,19 +4995,19 @@
         <v>140275</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>121620</v>
+        <v>120630</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>162428</v>
+        <v>161484</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2876248868998823</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2493732835165532</v>
+        <v>0.247343397829732</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.333047905622527</v>
+        <v>0.3311131071587524</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>118</v>
@@ -5016,19 +5016,19 @@
         <v>114267</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>97521</v>
+        <v>97836</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>132832</v>
+        <v>132773</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3131109998947973</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2672219948457998</v>
+        <v>0.2680854341374215</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.363981463155776</v>
+        <v>0.3638194776878458</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>252</v>
@@ -5037,19 +5037,19 @@
         <v>254542</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>228801</v>
+        <v>227218</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>281816</v>
+        <v>281899</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2985332627186884</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2683434883793462</v>
+        <v>0.2664864578778514</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3305207440198961</v>
+        <v>0.330618451950388</v>
       </c>
     </row>
     <row r="25">
@@ -5066,19 +5066,19 @@
         <v>105284</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>86397</v>
+        <v>88521</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>123149</v>
+        <v>124358</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2158791544339506</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1771511144601405</v>
+        <v>0.181506261300931</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2525096811314617</v>
+        <v>0.2549880500774885</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -5087,19 +5087,19 @@
         <v>66513</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53130</v>
+        <v>53192</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>81851</v>
+        <v>82558</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1822567850478918</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1455849538685537</v>
+        <v>0.1457559737227823</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2242852434751221</v>
+        <v>0.2262228758450372</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>168</v>
@@ -5108,19 +5108,19 @@
         <v>171797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>152133</v>
+        <v>148086</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>198577</v>
+        <v>195716</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2014883588954146</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1784257733557087</v>
+        <v>0.1736784911543842</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.232896576345477</v>
+        <v>0.2295401082102623</v>
       </c>
     </row>
     <row r="26">
@@ -5137,19 +5137,19 @@
         <v>98271</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>82352</v>
+        <v>82317</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119011</v>
+        <v>118281</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2014976087932162</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1688575587058294</v>
+        <v>0.168784883600929</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.244024640455443</v>
+        <v>0.2425283336016323</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>80</v>
@@ -5158,19 +5158,19 @@
         <v>85838</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>68647</v>
+        <v>71122</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>101094</v>
+        <v>101055</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2352109739831823</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.188102739380796</v>
+        <v>0.1948854685668687</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2770149360115898</v>
+        <v>0.2769061297851386</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>172</v>
@@ -5179,19 +5179,19 @@
         <v>184109</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>162639</v>
+        <v>161451</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>210266</v>
+        <v>210972</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2159273516764161</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1907473662618725</v>
+        <v>0.1893536841062697</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2466055332633991</v>
+        <v>0.2474329487520861</v>
       </c>
     </row>
     <row r="27">
@@ -5283,19 +5283,19 @@
         <v>44674</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34984</v>
+        <v>32656</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>59303</v>
+        <v>57440</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2314433260199393</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1812435930370181</v>
+        <v>0.1691843412570333</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3072355270705908</v>
+        <v>0.2975805050199881</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -5304,19 +5304,19 @@
         <v>28664</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19477</v>
+        <v>19517</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39665</v>
+        <v>39518</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1450472065575347</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09855746809435137</v>
+        <v>0.09876280614459809</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2007128499933111</v>
+        <v>0.1999705027072727</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>65</v>
@@ -5325,19 +5325,19 @@
         <v>73338</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>57430</v>
+        <v>59516</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>90880</v>
+        <v>91898</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1877368859612164</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1470146678674182</v>
+        <v>0.1523546713215383</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2326430312949826</v>
+        <v>0.2352503769619722</v>
       </c>
     </row>
     <row r="29">
@@ -5354,19 +5354,19 @@
         <v>28880</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19836</v>
+        <v>20299</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40614</v>
+        <v>39492</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1496187343516098</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1027651966033496</v>
+        <v>0.1051633323195057</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2104099511947219</v>
+        <v>0.2046010042786722</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -5375,19 +5375,19 @@
         <v>38735</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28918</v>
+        <v>28490</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>50617</v>
+        <v>50520</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1960079016759643</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1463297946898379</v>
+        <v>0.1441639718082285</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.256135782347709</v>
+        <v>0.2556440027268261</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>65</v>
@@ -5396,19 +5396,19 @@
         <v>67614</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>54596</v>
+        <v>53233</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>84963</v>
+        <v>82251</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1730862855987262</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1397594444240337</v>
+        <v>0.1362700237198976</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2174968413354788</v>
+        <v>0.2105555919123646</v>
       </c>
     </row>
     <row r="30">
@@ -5425,19 +5425,19 @@
         <v>48868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36921</v>
+        <v>37337</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>62351</v>
+        <v>63560</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2531737477694623</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1912794254766215</v>
+        <v>0.1934356561343759</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3230261012337332</v>
+        <v>0.3292893161181047</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>48</v>
@@ -5446,19 +5446,19 @@
         <v>48770</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>36886</v>
+        <v>37911</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61296</v>
+        <v>61191</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2467886207819136</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1866545431668172</v>
+        <v>0.1918369844218335</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3101718249448919</v>
+        <v>0.3096403270051061</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>92</v>
@@ -5467,19 +5467,19 @@
         <v>97638</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>79885</v>
+        <v>80217</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>116432</v>
+        <v>115199</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2499436122994304</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2044971279900631</v>
+        <v>0.2053477147254876</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2980534570584056</v>
+        <v>0.2948985429838721</v>
       </c>
     </row>
     <row r="31">
@@ -5496,19 +5496,19 @@
         <v>24847</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15428</v>
+        <v>16580</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34851</v>
+        <v>35423</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1287274671638572</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07993080783950826</v>
+        <v>0.0858979289690064</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1805557520850973</v>
+        <v>0.1835196959969816</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>41</v>
@@ -5517,19 +5517,19 @@
         <v>41141</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>30677</v>
+        <v>31109</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>53578</v>
+        <v>53405</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2081817106886458</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.155232787251106</v>
+        <v>0.1574193142321041</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2711163355713408</v>
+        <v>0.2702410557966408</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>65</v>
@@ -5538,19 +5538,19 @@
         <v>65988</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53632</v>
+        <v>52023</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>82571</v>
+        <v>82309</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1689221212019761</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.137292827389156</v>
+        <v>0.1331736224779151</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2113744085991509</v>
+        <v>0.2107023675278364</v>
       </c>
     </row>
     <row r="32">
@@ -5567,19 +5567,19 @@
         <v>45753</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34388</v>
+        <v>34424</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>58080</v>
+        <v>59192</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2370367246951313</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1781554988263669</v>
+        <v>0.1783404197911359</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3008970728054431</v>
+        <v>0.3066590039188002</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>39</v>
@@ -5588,19 +5588,19 @@
         <v>40309</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29807</v>
+        <v>30372</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>52283</v>
+        <v>52465</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2039745602959416</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1508282975480306</v>
+        <v>0.1536882678700607</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2645627077112894</v>
+        <v>0.265487498718908</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>81</v>
@@ -5609,19 +5609,19 @@
         <v>86062</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>69076</v>
+        <v>70604</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>102567</v>
+        <v>102191</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.220311094938651</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1768275660483537</v>
+        <v>0.1807399285479566</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2625626073479058</v>
+        <v>0.2615995428877591</v>
       </c>
     </row>
     <row r="33">
@@ -5713,19 +5713,19 @@
         <v>154141</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>132606</v>
+        <v>131418</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>183585</v>
+        <v>180371</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1088304120120938</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09362584326243198</v>
+        <v>0.09278723232134116</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1296197244721854</v>
+        <v>0.1273503316790859</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>106</v>
@@ -5734,19 +5734,19 @@
         <v>108972</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>91395</v>
+        <v>89673</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>130940</v>
+        <v>130074</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1056924292112674</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08864454629279533</v>
+        <v>0.08697473839477926</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1269990322608532</v>
+        <v>0.1261592915396394</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>245</v>
@@ -5755,19 +5755,19 @@
         <v>263112</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>235142</v>
+        <v>233401</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>297022</v>
+        <v>295633</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1075084393694116</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09607952252326392</v>
+        <v>0.09536811465673259</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1213638168621226</v>
+        <v>0.1207964162013183</v>
       </c>
     </row>
     <row r="35">
@@ -5784,19 +5784,19 @@
         <v>187440</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>162473</v>
+        <v>164045</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>213958</v>
+        <v>215845</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1323410908997001</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1147135438133904</v>
+        <v>0.1158235043445558</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1510644810031217</v>
+        <v>0.1523968626323303</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>146</v>
@@ -5805,19 +5805,19 @@
         <v>150403</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>128753</v>
+        <v>129292</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>176513</v>
+        <v>176279</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1458768947949169</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1248780434811458</v>
+        <v>0.1254005328346899</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1712007844060614</v>
+        <v>0.1709741435831593</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>322</v>
@@ -5826,19 +5826,19 @@
         <v>337843</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>305159</v>
+        <v>300708</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>376194</v>
+        <v>371950</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1380434683765544</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1246887415052781</v>
+        <v>0.1228701346705933</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1537137567338555</v>
+        <v>0.1519795959521941</v>
       </c>
     </row>
     <row r="36">
@@ -5855,19 +5855,19 @@
         <v>376194</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>343175</v>
+        <v>339247</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>411465</v>
+        <v>409605</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2656108068256843</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2422975032315735</v>
+        <v>0.2395241136735314</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2905136391910464</v>
+        <v>0.2892002725979134</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>265</v>
@@ -5876,19 +5876,19 @@
         <v>263508</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>234362</v>
+        <v>234990</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>291432</v>
+        <v>290970</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2555772122312206</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2273088543220123</v>
+        <v>0.2279182451217115</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2826612518662249</v>
+        <v>0.2822130851557081</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>614</v>
@@ -5897,19 +5897,19 @@
         <v>639702</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>595730</v>
+        <v>598544</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>686436</v>
+        <v>686570</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2613838437084383</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2434167393076241</v>
+        <v>0.244566675025392</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2804795434380945</v>
+        <v>0.2805342998165986</v>
       </c>
     </row>
     <row r="37">
@@ -5926,19 +5926,19 @@
         <v>318282</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>287948</v>
+        <v>285815</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>353637</v>
+        <v>350662</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2247215924602891</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2033044854961984</v>
+        <v>0.2017985199363606</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2496840959207292</v>
+        <v>0.2475834521178328</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>232</v>
@@ -5947,19 +5947,19 @@
         <v>236082</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>210140</v>
+        <v>210657</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>263362</v>
+        <v>262081</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2289773786726481</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2038160135917427</v>
+        <v>0.204317590581919</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2554360368704032</v>
+        <v>0.2541931512352456</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>534</v>
@@ -5968,19 +5968,19 @@
         <v>554364</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>513349</v>
+        <v>512360</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>597622</v>
+        <v>593185</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2265144744813</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2097559729868744</v>
+        <v>0.2093518170183225</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2441898169083528</v>
+        <v>0.2423769392721682</v>
       </c>
     </row>
     <row r="38">
@@ -5997,19 +5997,19 @@
         <v>380281</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>347524</v>
+        <v>346493</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>414552</v>
+        <v>415568</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2684960978022327</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2453679884584729</v>
+        <v>0.2446405123344159</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2926933086811782</v>
+        <v>0.2934106206439059</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>258</v>
@@ -6018,19 +6018,19 @@
         <v>272064</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>244073</v>
+        <v>241909</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>301097</v>
+        <v>300138</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.263876085089947</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2367278191640554</v>
+        <v>0.2346291204506486</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2920353795967797</v>
+        <v>0.2911054493073481</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>609</v>
@@ -6039,19 +6039,19 @@
         <v>652345</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>606594</v>
+        <v>611872</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>695874</v>
+        <v>702372</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2665497740642958</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2478560032324133</v>
+        <v>0.2500124278342369</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2843361582176331</v>
+        <v>0.2869912932285105</v>
       </c>
     </row>
     <row r="39">
